--- a/Data-demographic.xlsx
+++ b/Data-demographic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cornell 康奈尔\课程 Class\2023-2024 Fall\MATH 3610\CMCM\3610_CMCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A5223E-F3E0-4FA3-A5C1-BE0445460DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E667E-3FE6-4388-9440-F0B700603C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="117">
   <si>
     <t>year</t>
   </si>
@@ -393,6 +393,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -430,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +453,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -473,13 +483,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,13 +588,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6733,38 +6853,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:U63"/>
+  <dimension ref="E3:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="43.26953125" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="23.08984375" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="6.90625" customWidth="1"/>
-    <col min="11" max="12" width="28.1796875" customWidth="1"/>
-    <col min="13" max="13" width="6.90625" customWidth="1"/>
-    <col min="14" max="15" width="18.7265625" customWidth="1"/>
-    <col min="16" max="16" width="7.54296875" customWidth="1"/>
-    <col min="17" max="18" width="19.36328125" customWidth="1"/>
-    <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="18.453125" customWidth="1"/>
-    <col min="21" max="21" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" customWidth="1"/>
+    <col min="11" max="12" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" customWidth="1"/>
+    <col min="14" max="16" width="19.36328125" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="18.453125" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21">
+    <row r="3" spans="5:20">
+      <c r="E3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
         <v>115</v>
@@ -6773,823 +6901,673 @@
         <v>116</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
+    </row>
+    <row r="4" spans="5:20">
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="10">
+      <c r="G4" s="10">
+        <v>118617000</v>
+      </c>
+      <c r="H4" s="16">
+        <f>SUM(G4,G5)</f>
+        <v>273899000</v>
+      </c>
+      <c r="I4" s="12">
         <v>6</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="10">
+        <v>165056000</v>
+      </c>
+      <c r="L4" s="22">
+        <f>SUM(K4:K8)</f>
+        <v>786178000</v>
+      </c>
+      <c r="M4" s="12">
+        <v>9</v>
+      </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="10">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="12">
+      <c r="O4" s="11">
         <v>86384000</v>
       </c>
+      <c r="P4" s="22">
+        <f>SUM(O4:O9)</f>
+        <v>275718000</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>11</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="S4" s="10">
-        <v>11</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="J5" s="10"/>
-      <c r="K5" s="1" t="s">
+        <v>54346000</v>
+      </c>
+      <c r="T4" s="16">
+        <f>SUM(S4,S5,S6)</f>
+        <v>101397000</v>
+      </c>
+    </row>
+    <row r="5" spans="5:20">
+      <c r="E5" s="12"/>
+      <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="1" t="s">
+      <c r="G5" s="10">
+        <v>155282000</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="K5" s="10">
+        <v>41230000</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="1" t="s">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="2:21">
-      <c r="J6" s="10">
+      <c r="S5" s="10">
+        <v>3145000</v>
+      </c>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="5:20">
+      <c r="E6" s="12">
         <v>2</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="12">
+      <c r="G6" s="11">
         <v>130973000</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="H6" s="25">
+        <f>SUM(G6,G7,G8)</f>
+        <v>673429000</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="10">
+        <v>287853000</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="11">
-        <v>287853000</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="1" t="s">
+      <c r="O6" s="10">
+        <v>10268000</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="12">
+      <c r="S6" s="11">
         <v>43906000</v>
       </c>
-    </row>
-    <row r="7" spans="2:21">
-      <c r="J7" s="10"/>
-      <c r="K7" s="3" t="s">
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" spans="5:20">
+      <c r="E7" s="12"/>
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="10"/>
+      <c r="G7" s="10">
+        <v>234935000</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="10">
+        <v>178409000</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="O7" s="10">
+        <v>74959000</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="12">
+        <v>12</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="S7" s="10">
+        <v>28383000</v>
+      </c>
+      <c r="T7" s="16">
+        <f>SUM(S7,S8,S9)</f>
+        <v>118440000</v>
+      </c>
+    </row>
+    <row r="8" spans="5:20">
+      <c r="E8" s="12"/>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="10">
+        <v>307521000</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="10">
+        <v>113630000</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="10">
+        <v>56180000</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="10">
+        <v>87915000</v>
+      </c>
+      <c r="T8" s="16"/>
+    </row>
+    <row r="9" spans="5:20">
+      <c r="E9" s="12">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10">
+        <v>160967000</v>
+      </c>
+      <c r="H9" s="25">
+        <f>SUM(G9,G10,G11)</f>
+        <v>323695000</v>
+      </c>
+      <c r="I9" s="12">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="10">
+        <v>40857000</v>
+      </c>
+      <c r="L9" s="20">
+        <f>SUM(K9:K14)</f>
+        <v>320780000</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="10">
+        <v>47927000</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="10">
+        <v>2142000</v>
+      </c>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" spans="5:20">
+      <c r="E10" s="12"/>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="10">
+        <v>93412000</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="10">
+        <v>64702000</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="12">
+        <v>10</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="10">
+        <v>167789000</v>
+      </c>
+      <c r="P10" s="20">
+        <f>SUM(O10:O19)</f>
+        <v>597500000</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>13</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" s="10">
+        <v>6956000</v>
+      </c>
+      <c r="T10" s="23">
+        <f>SUM(S10:S15)</f>
+        <v>13904000</v>
+      </c>
+    </row>
+    <row r="11" spans="5:20">
+      <c r="E11" s="12"/>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10">
+        <v>69316000</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="10">
+        <v>69506000</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="11">
+        <v>13178000</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="5:20">
+      <c r="E12" s="12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="10">
+        <v>76643000</v>
+      </c>
+      <c r="H12" s="20">
+        <f>SUM(G12:G17)</f>
+        <v>892293000</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="10">
+        <v>67923000</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="10">
+        <v>1916000</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="10">
+        <v>6809000</v>
+      </c>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="5:20">
+      <c r="E13" s="12"/>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="10">
+        <v>183695000</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="10">
+        <v>32087000</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="10">
+        <v>76810000</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="10">
+        <v>45000</v>
+      </c>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="5:20">
+      <c r="E14" s="12"/>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="10">
+        <v>205160000</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="10">
+        <v>45705000</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="10">
+        <v>135813000</v>
+      </c>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="10">
+        <v>94000</v>
+      </c>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="5:20">
+      <c r="E15" s="12"/>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="10">
+        <v>221295000</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="12">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="10">
+        <v>191077000</v>
+      </c>
+      <c r="L15" s="20">
+        <f>SUM(K15:K18)</f>
+        <v>502582000</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="10">
+        <v>5462000</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" spans="5:20">
+      <c r="E16" s="12"/>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="10">
+        <v>90843000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="10">
+        <v>153073000</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="J8" s="10"/>
-      <c r="K8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="B9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="10">
-        <v>3</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="11">
-        <v>160967000</v>
-      </c>
-      <c r="M9" s="10">
-        <v>7</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="2:21">
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="11">
-        <v>93412000</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="11">
-        <v>167789000</v>
-      </c>
-      <c r="S10" s="10">
-        <v>13</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U10" s="11"/>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="10"/>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="11">
-        <v>69316000</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="12">
-        <v>13178000</v>
-      </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="3" t="s">
+      <c r="O16" s="10">
+        <v>47329000</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="12">
         <v>14</v>
       </c>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="2:21">
-      <c r="B12" s="10">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="10">
-        <v>4</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="11">
-        <v>67923000</v>
-      </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="B13" s="10"/>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="11">
-        <v>32087000</v>
-      </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="B14" s="10"/>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="11">
-        <v>45705000</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="2:21">
-      <c r="B15" s="10">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="10">
-        <v>8</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="2:21">
-      <c r="B16" s="10"/>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="10">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="11">
-        <v>47329000</v>
+      <c r="R16" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="S16" s="10">
-        <v>14</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U16" s="11"/>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="B17" s="10"/>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="1" t="s">
+        <v>2732000</v>
+      </c>
+      <c r="T16" s="15">
+        <f>SUM(S16,S17)</f>
+        <v>228310000</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20">
+      <c r="E17" s="12"/>
+      <c r="F17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="10"/>
+      <c r="G17" s="10">
+        <v>114657000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="10">
+        <v>100455000</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="11">
+      <c r="O17" s="10">
         <v>88432000</v>
       </c>
-      <c r="S17" s="10"/>
-      <c r="T17" s="3" t="s">
+      <c r="P17" s="20"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="10">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="S17" s="10">
+        <v>225578000</v>
+      </c>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="5:20">
+      <c r="E18" s="12">
         <v>5</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="G18" s="10">
+        <v>195950000</v>
+      </c>
+      <c r="H18" s="25">
+        <f>SUM(G18,G19,G20)</f>
+        <v>260715000</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="10">
+        <v>57977000</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="B19" s="10"/>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="3" t="s">
+      <c r="O18" s="10">
+        <v>41010000</v>
+      </c>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="5:20">
+      <c r="E19" s="12"/>
+      <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="1" t="s">
+      <c r="G19" s="10">
+        <v>45753000</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="B20" s="10"/>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="1" t="s">
+      <c r="O19" s="10">
+        <v>19761000</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="5:20">
+      <c r="E20" s="12"/>
+      <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="11">
+      <c r="G20" s="10">
         <v>19012000</v>
       </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="B21" s="10"/>
-      <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="10"/>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23" s="10"/>
-      <c r="C23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="10">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21">
-      <c r="B25" s="10"/>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="B26" s="10"/>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="10">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21">
-      <c r="B27" s="10">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="B28" s="10"/>
-      <c r="C28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="B29" s="10"/>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="10">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21">
-      <c r="B30" s="10"/>
-      <c r="C30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21">
-      <c r="B31" s="10"/>
-      <c r="C31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="B32" s="10">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="10">
-        <v>13</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="10"/>
-      <c r="C33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="10"/>
-      <c r="C34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="10"/>
-      <c r="C35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="10"/>
-      <c r="C36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="10"/>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="10">
-        <v>8</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="10">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="10"/>
-      <c r="C39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="10"/>
-      <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="10"/>
-      <c r="C41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="4"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="4"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="4"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="4"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="31" spans="5:20">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S10:S15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="D40:E41"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="S18:T20"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="M15:M18"/>
+  <mergeCells count="31">
     <mergeCell ref="P4:P9"/>
     <mergeCell ref="P10:P19"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="T10:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="Q18:R20"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="M4:M9"/>
+    <mergeCell ref="M10:M19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data-demographic.xlsx
+++ b/Data-demographic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cornell 康奈尔\课程 Class\2023-2024 Fall\MATH 3610\CMCM\3610_CMCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E667E-3FE6-4388-9440-F0B700603C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC112E85-6CF0-4AC5-A7A3-66CFAE264629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="118">
   <si>
     <t>year</t>
   </si>
@@ -387,15 +387,18 @@
   </si>
   <si>
     <t>Component County</t>
+  </si>
+  <si>
+    <t>production on market</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -557,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,25 +597,19 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -624,19 +621,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6853,10 +6853,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="E3:T31"/>
+  <dimension ref="E3:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H17"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14"/>
@@ -6865,7 +6865,7 @@
     <col min="5" max="5" width="6.90625" customWidth="1"/>
     <col min="6" max="6" width="21.453125" customWidth="1"/>
     <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" style="15" customWidth="1"/>
     <col min="9" max="9" width="6.90625" customWidth="1"/>
     <col min="10" max="10" width="18.7265625" customWidth="1"/>
     <col min="11" max="12" width="15.453125" customWidth="1"/>
@@ -6884,15 +6884,19 @@
       <c r="F3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="14"/>
       <c r="I3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
         <v>115</v>
@@ -6900,7 +6904,9 @@
       <c r="N3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="1"/>
+      <c r="O3" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
         <v>115</v>
@@ -6908,13 +6914,13 @@
       <c r="R3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="S3" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="5:20">
-      <c r="E4" s="12">
+      <c r="E4" s="24">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -6927,7 +6933,7 @@
         <f>SUM(G4,G5)</f>
         <v>273899000</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="24">
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -6936,11 +6942,11 @@
       <c r="K4" s="10">
         <v>165056000</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="16">
         <f>SUM(K4:K8)</f>
         <v>786178000</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="24">
         <v>9</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -6949,11 +6955,11 @@
       <c r="O4" s="11">
         <v>86384000</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="16">
         <f>SUM(O4:O9)</f>
         <v>275718000</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="24">
         <v>11</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -6968,39 +6974,39 @@
       </c>
     </row>
     <row r="5" spans="5:20">
-      <c r="E5" s="12"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="10">
         <v>155282000</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K5" s="10">
         <v>41230000</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="12"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="S5" s="10">
         <v>3145000</v>
       </c>
-      <c r="T5" s="16"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="5:20">
-      <c r="E6" s="12">
+      <c r="E6" s="24">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -7009,61 +7015,61 @@
       <c r="G6" s="11">
         <v>130973000</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="16">
         <f>SUM(G6,G7,G8)</f>
         <v>673429000</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="10">
         <v>287853000</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="12"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O6" s="10">
         <v>10268000</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="12"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="24"/>
       <c r="R6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="11">
         <v>43906000</v>
       </c>
-      <c r="T6" s="16"/>
+      <c r="T6" s="18"/>
     </row>
     <row r="7" spans="5:20">
-      <c r="E7" s="12"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="10">
         <v>234935000</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="10">
         <v>178409000</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="O7" s="10">
         <v>74959000</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="12">
+      <c r="P7" s="17"/>
+      <c r="Q7" s="24">
         <v>12</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -7078,41 +7084,41 @@
       </c>
     </row>
     <row r="8" spans="5:20">
-      <c r="E8" s="12"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="10">
         <v>307521000</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K8" s="10">
         <v>113630000</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="O8" s="10">
         <v>56180000</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="12"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="24"/>
       <c r="R8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="S8" s="10">
         <v>87915000</v>
       </c>
-      <c r="T8" s="16"/>
+      <c r="T8" s="18"/>
     </row>
     <row r="9" spans="5:20">
-      <c r="E9" s="12">
+      <c r="E9" s="24">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -7121,11 +7127,11 @@
       <c r="G9" s="10">
         <v>160967000</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="16">
         <f>SUM(G9,G10,G11)</f>
         <v>323695000</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="24">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -7134,45 +7140,45 @@
       <c r="K9" s="10">
         <v>40857000</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="18">
         <f>SUM(K9:K14)</f>
         <v>320780000</v>
       </c>
-      <c r="M9" s="12"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O9" s="10">
         <v>47927000</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="12"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="24"/>
       <c r="R9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="S9" s="10">
         <v>2142000</v>
       </c>
-      <c r="T9" s="16"/>
+      <c r="T9" s="18"/>
     </row>
     <row r="10" spans="5:20">
-      <c r="E10" s="12"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="10">
         <v>93412000</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K10" s="10">
         <v>64702000</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="12">
+      <c r="L10" s="18"/>
+      <c r="M10" s="24">
         <v>10</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -7181,11 +7187,11 @@
       <c r="O10" s="10">
         <v>167789000</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="18">
         <f>SUM(O10:O19)</f>
         <v>597500000</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="24">
         <v>13</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -7194,45 +7200,45 @@
       <c r="S10" s="10">
         <v>6956000</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="20">
         <f>SUM(S10:S15)</f>
         <v>13904000</v>
       </c>
     </row>
     <row r="11" spans="5:20">
-      <c r="E11" s="12"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="10">
         <v>69316000</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="12"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="10">
         <v>69506000</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="12"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="11">
         <v>13178000</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="14" t="s">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="S11" s="3"/>
-      <c r="T11" s="17"/>
+      <c r="T11" s="21"/>
     </row>
     <row r="12" spans="5:20">
-      <c r="E12" s="12">
+      <c r="E12" s="24">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -7241,113 +7247,113 @@
       <c r="G12" s="10">
         <v>76643000</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="16">
         <f>SUM(G12:G17)</f>
         <v>892293000</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="10">
         <v>67923000</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="12"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="O12" s="10">
         <v>1916000</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="12"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="24"/>
       <c r="R12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S12" s="10">
         <v>6809000</v>
       </c>
-      <c r="T12" s="17"/>
+      <c r="T12" s="21"/>
     </row>
     <row r="13" spans="5:20">
-      <c r="E13" s="12"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="10">
         <v>183695000</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="12"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="10">
         <v>32087000</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O13" s="10">
         <v>76810000</v>
       </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="12"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="24"/>
       <c r="R13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="S13" s="10">
         <v>45000</v>
       </c>
-      <c r="T13" s="17"/>
+      <c r="T13" s="21"/>
     </row>
     <row r="14" spans="5:20">
-      <c r="E14" s="12"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="10">
         <v>205160000</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="12"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K14" s="10">
         <v>45705000</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="12"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="3" t="s">
         <v>69</v>
       </c>
       <c r="O14" s="10">
         <v>135813000</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="12"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="24"/>
       <c r="R14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="S14" s="10">
         <v>94000</v>
       </c>
-      <c r="T14" s="17"/>
+      <c r="T14" s="21"/>
     </row>
     <row r="15" spans="5:20">
-      <c r="E15" s="12"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G15" s="10">
         <v>221295000</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="12">
+      <c r="H15" s="18"/>
+      <c r="I15" s="24">
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -7356,51 +7362,51 @@
       <c r="K15" s="10">
         <v>191077000</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="18">
         <f>SUM(K15:K18)</f>
         <v>502582000</v>
       </c>
-      <c r="M15" s="12"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O15" s="10">
         <v>5462000</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="13" t="s">
+      <c r="P15" s="18"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="S15" s="1"/>
-      <c r="T15" s="18"/>
+      <c r="T15" s="22"/>
     </row>
     <row r="16" spans="5:20">
-      <c r="E16" s="12"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="10">
         <v>90843000</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="12"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16" s="10">
         <v>153073000</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O16" s="10">
         <v>47329000</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="12">
+      <c r="P16" s="18"/>
+      <c r="Q16" s="24">
         <v>14</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -7409,47 +7415,47 @@
       <c r="S16" s="10">
         <v>2732000</v>
       </c>
-      <c r="T16" s="15">
+      <c r="T16" s="23">
         <f>SUM(S16,S17)</f>
         <v>228310000</v>
       </c>
     </row>
     <row r="17" spans="5:20">
-      <c r="E17" s="12"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G17" s="10">
         <v>114657000</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="12"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K17" s="10">
         <v>100455000</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O17" s="10">
         <v>88432000</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="12"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="24"/>
       <c r="R17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="S17" s="10">
         <v>225578000</v>
       </c>
-      <c r="T17" s="12"/>
+      <c r="T17" s="24"/>
     </row>
     <row r="18" spans="5:20">
-      <c r="E18" s="12">
+      <c r="E18" s="24">
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -7458,98 +7464,433 @@
       <c r="G18" s="10">
         <v>195950000</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="16">
         <f>SUM(G18,G19,G20)</f>
         <v>260715000</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K18" s="10">
         <v>57977000</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="O18" s="10">
         <v>41010000</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="5:20">
-      <c r="E19" s="12"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="10">
         <v>45753000</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="12"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O19" s="10">
         <v>19761000</v>
       </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="5:20">
-      <c r="E20" s="12"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="10">
         <v>19012000</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
+    <row r="21" spans="5:20">
+      <c r="E21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="5:20">
+      <c r="E22" s="24">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="11">
+        <v>86384000</v>
+      </c>
+      <c r="H22" s="16">
+        <f>SUM(G22:G27)</f>
+        <v>275718000</v>
+      </c>
+      <c r="I22" s="24">
+        <v>11</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="10">
+        <v>54346000</v>
+      </c>
+      <c r="L22" s="16">
+        <f>SUM(K22,K23,K24)</f>
+        <v>101397000</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20">
+      <c r="E23" s="24"/>
+      <c r="F23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="10">
+        <v>3145000</v>
+      </c>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="5:20">
+      <c r="E24" s="24"/>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="10">
+        <v>10268000</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="11">
+        <v>43906000</v>
+      </c>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="5:20">
+      <c r="E25" s="24"/>
+      <c r="F25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="10">
+        <v>74959000</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="24">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="10">
+        <v>28383000</v>
+      </c>
+      <c r="L25" s="16">
+        <f>SUM(K25,K26,K27)</f>
+        <v>118440000</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20">
+      <c r="E26" s="24"/>
+      <c r="F26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="10">
+        <v>56180000</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="10">
+        <v>87915000</v>
+      </c>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="5:20">
+      <c r="E27" s="24"/>
+      <c r="F27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="10">
+        <v>47927000</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="10">
+        <v>2142000</v>
+      </c>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="5:20">
+      <c r="E28" s="24">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="10">
+        <v>167789000</v>
+      </c>
+      <c r="H28" s="18">
+        <f>SUM(G28:G37)</f>
+        <v>597500000</v>
+      </c>
+      <c r="I28" s="24">
+        <v>13</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="10">
+        <v>6956000</v>
+      </c>
+      <c r="L28" s="20">
+        <f>SUM(K28:K33)</f>
+        <v>13904000</v>
+      </c>
+    </row>
+    <row r="29" spans="5:20">
+      <c r="E29" s="24"/>
+      <c r="F29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="11">
+        <v>13178000</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="5:20">
+      <c r="E30" s="24"/>
+      <c r="F30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1916000</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="10">
+        <v>6809000</v>
+      </c>
+      <c r="L30" s="21"/>
+    </row>
     <row r="31" spans="5:20">
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="10">
+        <v>76810000</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="10">
+        <v>45000</v>
+      </c>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="5:20">
+      <c r="E32" s="24"/>
+      <c r="F32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="10">
+        <v>135813000</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="10">
+        <v>94000</v>
+      </c>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="5:12">
+      <c r="E33" s="24"/>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="10">
+        <v>5462000</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="5:12">
+      <c r="E34" s="24"/>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="10">
+        <v>47329000</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="24">
+        <v>14</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="10">
+        <v>2732000</v>
+      </c>
+      <c r="L34" s="23">
+        <f>SUM(K34,K35)</f>
+        <v>228310000</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12">
+      <c r="E35" s="24"/>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="10">
+        <v>88432000</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="10">
+        <v>225578000</v>
+      </c>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="5:12">
+      <c r="E36" s="24"/>
+      <c r="F36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="10">
+        <v>41010000</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="5:12">
+      <c r="E37" s="24"/>
+      <c r="F37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="10">
+        <v>19761000</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="5:12">
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="P4:P9"/>
-    <mergeCell ref="P10:P19"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L9:L14"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="T10:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H17"/>
+  <mergeCells count="45">
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="E28:E37"/>
+    <mergeCell ref="H28:H37"/>
+    <mergeCell ref="I28:I33"/>
+    <mergeCell ref="L28:L33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="I36:J38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="H22:H27"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="E18:E20"/>
@@ -7566,10 +7907,25 @@
     <mergeCell ref="M10:M19"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="T10:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="P4:P9"/>
+    <mergeCell ref="P10:P19"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="L15:L18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L4" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>